--- a/biology/Médecine/Walter_Charleton/Walter_Charleton.xlsx
+++ b/biology/Médecine/Walter_Charleton/Walter_Charleton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Charleton, né le 2 février 1619 et mort le 24 avril 1707, est un médecin et un naturaliste britannique.
 Walter Charleton est le médecin de Charles Ier d'Angleterre.
@@ -512,7 +524,9 @@
           <t>Sa vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est célèbre pour être l'auteur d'un traité inspiré des travaux de Pierre Gassendi (1592-1655), Physiologia Epicuro-Gassendo-Charltoniana or a Fabrick of Science Natural upon the Hypothesis of Atoms (1659).
 Charleton obtient à 22 ans, son titre de docteur en médecine à Oxford.
@@ -544,7 +558,9 @@
           <t>Onomasticon Zoicon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait paraître en 1668 Onomasticon Zoicon, plerorumque Animalium Differentias et Nomina Propria pluribus Linguis exponens. Cui accedunt Mantissa Anatomica et quaedam de Variis Fossilium Generibus, ouvrage important consacré à l'histoire naturelle.
 Il se subdivise en trois parties. La première tente de classer tous les animaux connus et offre des illustrations principalement d'oiseaux plus ou moins exactes. La seconde est consacrée à l'anatomie, notamment de poissons. Et la troisième traite de minéralogie et de fossiles.
@@ -576,7 +592,9 @@
           <t>L'ornithologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie les oiseaux à la ménagerie du St James's Park près du palais de Buckingham ainsi que les oiseaux des collections du muséum de la Royal Society. Il se réfère bien sûr aux travaux antérieurs et notamment ceux de Conrad Gessner (1516-1565), d'Ulisse Aldrovandi (1522-1605), de William Turner (v.1510-1568) et de John Jonston (1603-1675).
 Il suit les principes posés par ces auteurs et divise les oiseaux en deux grandes catégories : les oiseaux d'eau et les oiseaux terrestres. Ces catégories sont elles-mêmes subdivisées en groupe souvent assez homogènes.
@@ -609,7 +627,9 @@
           <t>Ses autres travaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le premier à calculer la taille d'une particule de matière en 1654. Il brûle un grain d’encens (du lupin vivace) dans une église et, à partir du rapport entre le volume original du grain et le volume dans lequel le parfum est perceptible, il estime le diamètre des particules composant le grain d'encens à 360 nanomètres.
 Il s'intéresse également à l'histoire et publie Chorea Gigantum en 1663 dans lequel il tente de prouver que Stonehenge fut construite par les Danois.
@@ -642,7 +662,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Deliramenta catarrhi (1650)
 The darkness of atheism dispelled by the light of nature (1654)
